--- a/scripts/x_mr_example.xlsx
+++ b/scripts/x_mr_example.xlsx
@@ -40,6 +40,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -117,17 +118,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>
@@ -162,7 +163,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>35.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -170,7 +171,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>19.4</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -178,7 +179,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>20.1</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
